--- a/be-address.xlsx
+++ b/be-address.xlsx
@@ -152,7 +152,12 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).
+Special remarks for KMEHR users:
+Note when .use and .type are used they SHALL use the FHIR defined valuesets as per their required binding level in the FHIR specification. In a KMEHR address, the use was defined by CD-ADDRESS but those values can be found in the FHIR valueset.
+KMEHR values 'careadress', 'other' and 'vacation' are not directly present in the FHIR address-use table but can be mapped to the value 'temp' in FHIR. In those cases, it is RECOMMENDED to also add a .period.
+In KMEHR, an address might be expressed using free text or a totally structured approach where the streetname and housenumber are put in separate fields. FHIR prefers a more pragmatic approach where the ‘text’ element is used to print on labels. Also, streetname and number are not separate fields as in KMEHR but in a structural approach are given as one or moren ‘line’ elements. It is however RECOMMENDED to use the Streetname, Housenumber and Postbox extensions to express them seperately.
+Note the FHIR address also allows to optionally define whether the address is a physical, postal or ‘both’ address using the .type field.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -618,7 +623,9 @@
     <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
   </si>
   <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
+    <t>Country - a nation as commonly understood or generally accepted.
+Concerning the codification of the country, the FHIR specification defines its country field as a string and suggests using a ISO 3166 2 or 3 letter codes.
+As that 2-letter format is also the standard in a KMEHR address, it is hence RECOMMENDED to codify the country in the same way as in KMEHR.</t>
   </si>
   <si>
     <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>

--- a/be-address.xlsx
+++ b/be-address.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="212">
   <si>
     <t>Path</t>
   </si>
@@ -206,7 +206,7 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>The Human Language of the item. Can be used to express the same address in multiple languages (e.g. in a Brussels setting)</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -232,7 +232,7 @@
     <t>Human Language for the item</t>
   </si>
   <si>
-    <t>The Human Language of the item. Can be used to express the same address in multiple languages (e.g. in a Brussels setting)</t>
+    <t>The Human Language of the item.</t>
   </si>
   <si>
     <t>This is used where an item may repeat to indicate the language of each repeat.</t>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Address.extension.extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Address.extension.url</t>
@@ -421,6 +424,9 @@
   </si>
   <si>
     <t>Address.line.extension</t>
+  </si>
+  <si>
+    <t>RECOMMENDED to use these extensions to define address elements.</t>
   </si>
   <si>
     <t>Streetname</t>
@@ -1571,7 +1577,7 @@
         <v>59</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1674,16 +1680,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1691,7 +1697,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>40</v>
@@ -1733,7 +1739,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>51</v>
@@ -1751,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1785,13 +1791,13 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1818,13 +1824,13 @@
         <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>40</v>
@@ -1842,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1860,7 +1866,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1888,25 +1894,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -1919,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>40</v>
@@ -1931,13 +1937,13 @@
         <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>40</v>
@@ -1955,7 +1961,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1970,13 +1976,13 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>40</v>
@@ -1984,7 +1990,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2004,19 +2010,19 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2030,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>40</v>
@@ -2042,13 +2048,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2066,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2081,21 +2087,21 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2115,22 +2121,22 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2143,7 +2149,7 @@
         <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>40</v>
@@ -2179,7 +2185,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2194,21 +2200,21 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2228,16 +2234,16 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2252,7 +2258,7 @@
         <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>40</v>
@@ -2288,7 +2294,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2303,21 +2309,21 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2343,10 +2349,10 @@
         <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2426,7 +2432,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2455,7 +2461,7 @@
         <v>59</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2533,10 +2539,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>40</v>
@@ -2558,13 +2564,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2627,13 +2633,13 @@
         <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2644,7 +2650,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2753,7 +2759,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2782,7 +2788,7 @@
         <v>59</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2862,7 +2868,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2885,16 +2891,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2902,7 +2908,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>40</v>
@@ -2944,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>51</v>
@@ -2962,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2999,10 +3005,10 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3053,7 +3059,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3071,7 +3077,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3082,10 +3088,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -3107,13 +3113,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3176,13 +3182,13 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3302,7 +3308,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3331,7 +3337,7 @@
         <v>59</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3411,7 +3417,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3434,16 +3440,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3451,7 +3457,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>40</v>
@@ -3493,7 +3499,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>51</v>
@@ -3511,7 +3517,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3548,10 +3554,10 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3602,7 +3608,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3620,7 +3626,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3631,10 +3637,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -3656,13 +3662,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3725,13 +3731,13 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3742,7 +3748,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3851,7 +3857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3880,7 +3886,7 @@
         <v>59</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3960,7 +3966,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3983,16 +3989,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4000,7 +4006,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>40</v>
@@ -4042,7 +4048,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -4060,7 +4066,7 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4071,7 +4077,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4097,10 +4103,10 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4151,7 +4157,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4169,7 +4175,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4180,7 +4186,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4206,10 +4212,10 @@
         <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4233,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>40</v>
@@ -4260,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4289,11 +4295,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4309,16 +4315,16 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4333,7 +4339,7 @@
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -4369,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4384,25 +4390,25 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4418,19 +4424,19 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4444,7 +4450,7 @@
         <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>40</v>
@@ -4480,7 +4486,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4495,10 +4501,10 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4509,11 +4515,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4529,16 +4535,16 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4589,7 +4595,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4604,25 +4610,25 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4638,16 +4644,16 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4662,7 +4668,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -4698,7 +4704,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4713,21 +4719,21 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4747,19 +4753,19 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4809,7 +4815,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -4824,21 +4830,21 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4858,20 +4864,20 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -4884,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -4920,7 +4926,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -4935,13 +4941,13 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
